--- a/Code/Results/Cases/Case_5_133/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_133/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.036518246747105</v>
+        <v>1.067515367707383</v>
       </c>
       <c r="D2">
-        <v>1.049435467686939</v>
+        <v>1.066648265962144</v>
       </c>
       <c r="E2">
-        <v>1.04303309936512</v>
+        <v>1.071631246931134</v>
       </c>
       <c r="F2">
-        <v>1.04748702412252</v>
+        <v>1.081017199031096</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.064397597178015</v>
+        <v>1.056387605843958</v>
       </c>
       <c r="J2">
-        <v>1.057658987294203</v>
+        <v>1.07245987330346</v>
       </c>
       <c r="K2">
-        <v>1.060246512262409</v>
+        <v>1.06935824989916</v>
       </c>
       <c r="L2">
-        <v>1.05392378298211</v>
+        <v>1.07432790634683</v>
       </c>
       <c r="M2">
-        <v>1.058322177041232</v>
+        <v>1.08368912070072</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.043881346863235</v>
+        <v>1.068928090650741</v>
       </c>
       <c r="D3">
-        <v>1.055320581357804</v>
+        <v>1.067776926209493</v>
       </c>
       <c r="E3">
-        <v>1.049754926222621</v>
+        <v>1.072950565568604</v>
       </c>
       <c r="F3">
-        <v>1.054912102893725</v>
+        <v>1.082508504673063</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067665314686088</v>
+        <v>1.056912375903674</v>
       </c>
       <c r="J3">
-        <v>1.063243267283898</v>
+        <v>1.073526819397444</v>
       </c>
       <c r="K3">
-        <v>1.065291369727176</v>
+        <v>1.070301762635523</v>
       </c>
       <c r="L3">
-        <v>1.05978843129713</v>
+        <v>1.075462574503108</v>
       </c>
       <c r="M3">
-        <v>1.064887466505</v>
+        <v>1.084997162449742</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.048500234061827</v>
+        <v>1.069840582125223</v>
       </c>
       <c r="D4">
-        <v>1.059014141529161</v>
+        <v>1.068505779158423</v>
       </c>
       <c r="E4">
-        <v>1.053972296153471</v>
+        <v>1.073802457860655</v>
       </c>
       <c r="F4">
-        <v>1.059574662691891</v>
+        <v>1.083472070239699</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.069702349798238</v>
+        <v>1.057249789916708</v>
       </c>
       <c r="J4">
-        <v>1.066739712637896</v>
+        <v>1.074215097625614</v>
       </c>
       <c r="K4">
-        <v>1.068448903226014</v>
+        <v>1.070910227125933</v>
       </c>
       <c r="L4">
-        <v>1.063460202264735</v>
+        <v>1.076194438545745</v>
       </c>
       <c r="M4">
-        <v>1.069003554294545</v>
+        <v>1.0858416276603</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.050409122570203</v>
+        <v>1.070223809267357</v>
       </c>
       <c r="D5">
-        <v>1.060540969190672</v>
+        <v>1.068811843006532</v>
       </c>
       <c r="E5">
-        <v>1.055715378886235</v>
+        <v>1.074160170210607</v>
       </c>
       <c r="F5">
-        <v>1.061502717102903</v>
+        <v>1.083876823210907</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.070541098190744</v>
+        <v>1.057391127720013</v>
       </c>
       <c r="J5">
-        <v>1.068183098554672</v>
+        <v>1.0745039507973</v>
       </c>
       <c r="K5">
-        <v>1.069752086573771</v>
+        <v>1.071165539234296</v>
       </c>
       <c r="L5">
-        <v>1.064975916455161</v>
+        <v>1.076501559590203</v>
       </c>
       <c r="M5">
-        <v>1.070704050369633</v>
+        <v>1.08619618661742</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.050727758174437</v>
+        <v>1.070288132461976</v>
       </c>
       <c r="D6">
-        <v>1.060795849232703</v>
+        <v>1.06886321233133</v>
       </c>
       <c r="E6">
-        <v>1.056006344325215</v>
+        <v>1.074220207063781</v>
       </c>
       <c r="F6">
-        <v>1.061824616702061</v>
+        <v>1.083944763876282</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.070680919402224</v>
+        <v>1.05741482907846</v>
       </c>
       <c r="J6">
-        <v>1.06842393500417</v>
+        <v>1.0745524214132</v>
       </c>
       <c r="K6">
-        <v>1.069969511753618</v>
+        <v>1.071208378877077</v>
       </c>
       <c r="L6">
-        <v>1.065228818494979</v>
+        <v>1.076553094219964</v>
       </c>
       <c r="M6">
-        <v>1.070987864601883</v>
+        <v>1.086255692184816</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.048525867510726</v>
+        <v>1.069845704326204</v>
       </c>
       <c r="D7">
-        <v>1.059034643171923</v>
+        <v>1.068509870151678</v>
       </c>
       <c r="E7">
-        <v>1.053995702620062</v>
+        <v>1.073807239285192</v>
       </c>
       <c r="F7">
-        <v>1.059600549129552</v>
+        <v>1.083477479856299</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06971362529037</v>
+        <v>1.057251680483691</v>
       </c>
       <c r="J7">
-        <v>1.066759101570307</v>
+        <v>1.074218959249759</v>
       </c>
       <c r="K7">
-        <v>1.068466410009751</v>
+        <v>1.070913640524047</v>
       </c>
       <c r="L7">
-        <v>1.063480562967512</v>
+        <v>1.076198544483796</v>
       </c>
       <c r="M7">
-        <v>1.069026391758548</v>
+        <v>1.085846367070903</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.039038001341153</v>
+        <v>1.067993146799555</v>
       </c>
       <c r="D8">
-        <v>1.051449001029985</v>
+        <v>1.067030008455863</v>
       </c>
       <c r="E8">
-        <v>1.045333211059327</v>
+        <v>1.072077492496162</v>
       </c>
       <c r="F8">
-        <v>1.050026955011387</v>
+        <v>1.081521488884436</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065518534607882</v>
+        <v>1.056565400780958</v>
       </c>
       <c r="J8">
-        <v>1.059571369470507</v>
+        <v>1.072820892358421</v>
       </c>
       <c r="K8">
-        <v>1.061974402400907</v>
+        <v>1.069677542046553</v>
       </c>
       <c r="L8">
-        <v>1.05593222831018</v>
+        <v>1.074711861403927</v>
       </c>
       <c r="M8">
-        <v>1.060569378648954</v>
+        <v>1.084131582214222</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.021107253769814</v>
+        <v>1.06471586511701</v>
       </c>
       <c r="D9">
-        <v>1.03713205079763</v>
+        <v>1.064410854184382</v>
       </c>
       <c r="E9">
-        <v>1.028970978395076</v>
+        <v>1.069015413720006</v>
       </c>
       <c r="F9">
-        <v>1.031974971056082</v>
+        <v>1.078063664197841</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057488189259882</v>
+        <v>1.055339506423568</v>
       </c>
       <c r="J9">
-        <v>1.045936062052899</v>
+        <v>1.070340934330664</v>
       </c>
       <c r="K9">
-        <v>1.049650102115194</v>
+        <v>1.067483454796774</v>
       </c>
       <c r="L9">
-        <v>1.041610879881232</v>
+        <v>1.072073923242188</v>
       </c>
       <c r="M9">
-        <v>1.044569735774857</v>
+        <v>1.081094865979735</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.00818466225662</v>
+        <v>1.062521931227502</v>
       </c>
       <c r="D10">
-        <v>1.026833215224425</v>
+        <v>1.062656738991818</v>
       </c>
       <c r="E10">
-        <v>1.017188782328806</v>
+        <v>1.066964169941332</v>
       </c>
       <c r="F10">
-        <v>1.018995721412212</v>
+        <v>1.075750511212564</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051634082115078</v>
+        <v>1.054510903166256</v>
       </c>
       <c r="J10">
-        <v>1.036077270775785</v>
+        <v>1.068676265371207</v>
       </c>
       <c r="K10">
-        <v>1.040734319171913</v>
+        <v>1.066009723804425</v>
       </c>
       <c r="L10">
-        <v>1.03125447170341</v>
+        <v>1.070302666590071</v>
       </c>
       <c r="M10">
-        <v>1.033030268159184</v>
+        <v>1.079059849365235</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.002318600035284</v>
+        <v>1.061569679915805</v>
       </c>
       <c r="D11">
-        <v>1.022164423093964</v>
+        <v>1.06189521655306</v>
       </c>
       <c r="E11">
-        <v>1.011843824086481</v>
+        <v>1.066073527469754</v>
       </c>
       <c r="F11">
-        <v>1.013111999783534</v>
+        <v>1.07474690480448</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048961606967295</v>
+        <v>1.054149375934798</v>
       </c>
       <c r="J11">
-        <v>1.031595239635177</v>
+        <v>1.067952672221848</v>
       </c>
       <c r="K11">
-        <v>1.036680115380923</v>
+        <v>1.06536890413672</v>
       </c>
       <c r="L11">
-        <v>1.026545787064121</v>
+        <v>1.069532610462937</v>
       </c>
       <c r="M11">
-        <v>1.027790807992198</v>
+        <v>1.078176070253449</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.000095003472249</v>
+        <v>1.061215622603977</v>
       </c>
       <c r="D12">
-        <v>1.020395763340298</v>
+        <v>1.061612049704286</v>
       </c>
       <c r="E12">
-        <v>1.009818378069427</v>
+        <v>1.065742328453265</v>
       </c>
       <c r="F12">
-        <v>1.010882994616333</v>
+        <v>1.074373811865063</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047946385741389</v>
+        <v>1.054014673706317</v>
       </c>
       <c r="J12">
-        <v>1.02989534312489</v>
+        <v>1.067683472977031</v>
       </c>
       <c r="K12">
-        <v>1.035142373747483</v>
+        <v>1.065130465984984</v>
       </c>
       <c r="L12">
-        <v>1.02475986029429</v>
+        <v>1.069246105508213</v>
       </c>
       <c r="M12">
-        <v>1.02580462212515</v>
+        <v>1.077847395950545</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.000574065385436</v>
+        <v>1.061291585022746</v>
       </c>
       <c r="D13">
-        <v>1.020776759260856</v>
+        <v>1.061672803788889</v>
       </c>
       <c r="E13">
-        <v>1.010254719715168</v>
+        <v>1.065813388855501</v>
       </c>
       <c r="F13">
-        <v>1.011363162492475</v>
+        <v>1.07445385568724</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048165207201287</v>
+        <v>1.054043586628528</v>
       </c>
       <c r="J13">
-        <v>1.03026161734677</v>
+        <v>1.067741236449419</v>
       </c>
       <c r="K13">
-        <v>1.035473713068974</v>
+        <v>1.065181630389945</v>
       </c>
       <c r="L13">
-        <v>1.025144674432091</v>
+        <v>1.069307583266172</v>
       </c>
       <c r="M13">
-        <v>1.026232538775798</v>
+        <v>1.077917915910562</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.00213573367644</v>
+        <v>1.061540420593538</v>
       </c>
       <c r="D14">
-        <v>1.022018947044469</v>
+        <v>1.061871816120465</v>
       </c>
       <c r="E14">
-        <v>1.011677240213984</v>
+        <v>1.066046158147569</v>
       </c>
       <c r="F14">
-        <v>1.012928662113823</v>
+        <v>1.074716071177981</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048878160108032</v>
+        <v>1.054138249892751</v>
       </c>
       <c r="J14">
-        <v>1.031455460242768</v>
+        <v>1.067930428828082</v>
       </c>
       <c r="K14">
-        <v>1.036553671694718</v>
+        <v>1.065349203146411</v>
       </c>
       <c r="L14">
-        <v>1.026398934948524</v>
+        <v>1.069508937542846</v>
       </c>
       <c r="M14">
-        <v>1.027627467792922</v>
+        <v>1.078148910128408</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.003091878135576</v>
+        <v>1.061693689923255</v>
       </c>
       <c r="D15">
-        <v>1.022779636204854</v>
+        <v>1.061994393782384</v>
       </c>
       <c r="E15">
-        <v>1.01254827507119</v>
+        <v>1.06618952508961</v>
       </c>
       <c r="F15">
-        <v>1.013887323566405</v>
+        <v>1.074877589602975</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049314386184907</v>
+        <v>1.054196519959848</v>
       </c>
       <c r="J15">
-        <v>1.032186280606091</v>
+        <v>1.068046940038117</v>
       </c>
       <c r="K15">
-        <v>1.037214763684913</v>
+        <v>1.065452395852965</v>
       </c>
       <c r="L15">
-        <v>1.027166731462092</v>
+        <v>1.06963293581071</v>
       </c>
       <c r="M15">
-        <v>1.028481512797914</v>
+        <v>1.078291180118931</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.008567941986514</v>
+        <v>1.062585080579933</v>
       </c>
       <c r="D16">
-        <v>1.027138409205075</v>
+        <v>1.062707236506135</v>
       </c>
       <c r="E16">
-        <v>1.01753809333717</v>
+        <v>1.067023226842336</v>
       </c>
       <c r="F16">
-        <v>1.019380327598945</v>
+        <v>1.075817074448948</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051808392238688</v>
+        <v>1.05453483855984</v>
       </c>
       <c r="J16">
-        <v>1.036369987144509</v>
+        <v>1.06872422870491</v>
       </c>
       <c r="K16">
-        <v>1.040999078464099</v>
+        <v>1.066052195835897</v>
       </c>
       <c r="L16">
-        <v>1.031561981451293</v>
+        <v>1.070353706927716</v>
       </c>
       <c r="M16">
-        <v>1.033372587118509</v>
+        <v>1.079118447319322</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.011927828653626</v>
+        <v>1.063143614263222</v>
       </c>
       <c r="D17">
-        <v>1.029814505601791</v>
+        <v>1.063153849730672</v>
       </c>
       <c r="E17">
-        <v>1.020600603200379</v>
+        <v>1.067545526862394</v>
       </c>
       <c r="F17">
-        <v>1.02275275806461</v>
+        <v>1.076405847799309</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053334730970764</v>
+        <v>1.054746321566114</v>
       </c>
       <c r="J17">
-        <v>1.038935230841303</v>
+        <v>1.069148324793548</v>
       </c>
       <c r="K17">
-        <v>1.043319221236794</v>
+        <v>1.066427711678791</v>
       </c>
       <c r="L17">
-        <v>1.034256819730154</v>
+        <v>1.070804994939156</v>
       </c>
       <c r="M17">
-        <v>1.036373273006381</v>
+        <v>1.079636667348151</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.013861795317593</v>
+        <v>1.063469179712746</v>
       </c>
       <c r="D18">
-        <v>1.031355453917958</v>
+        <v>1.063414161146435</v>
       </c>
       <c r="E18">
-        <v>1.022363713088945</v>
+        <v>1.067849940717619</v>
       </c>
       <c r="F18">
-        <v>1.024694695580427</v>
+        <v>1.076749077367921</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05421188028649</v>
+        <v>1.054869412245331</v>
       </c>
       <c r="J18">
-        <v>1.040411158932599</v>
+        <v>1.069395425050574</v>
       </c>
       <c r="K18">
-        <v>1.044654044263973</v>
+        <v>1.066646485109741</v>
       </c>
       <c r="L18">
-        <v>1.035807271170674</v>
+        <v>1.071067925943711</v>
       </c>
       <c r="M18">
-        <v>1.038100359139635</v>
+        <v>1.079938685685199</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.014516966028066</v>
+        <v>1.063580152437736</v>
       </c>
       <c r="D19">
-        <v>1.031877574671851</v>
+        <v>1.063502888482465</v>
       </c>
       <c r="E19">
-        <v>1.022961053094444</v>
+        <v>1.067953698374791</v>
       </c>
       <c r="F19">
-        <v>1.025352691850529</v>
+        <v>1.076866077490464</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054508789849991</v>
+        <v>1.054911338358063</v>
       </c>
       <c r="J19">
-        <v>1.040911049204563</v>
+        <v>1.069479634630706</v>
       </c>
       <c r="K19">
-        <v>1.045106127762816</v>
+        <v>1.066721037509099</v>
       </c>
       <c r="L19">
-        <v>1.036332395555567</v>
+        <v>1.071157528360652</v>
       </c>
       <c r="M19">
-        <v>1.038685421856218</v>
+        <v>1.080041623868967</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.011570040508693</v>
+        <v>1.063083711475979</v>
       </c>
       <c r="D20">
-        <v>1.029529472219521</v>
+        <v>1.063105952109838</v>
       </c>
       <c r="E20">
-        <v>1.020274448750129</v>
+        <v>1.067489513369828</v>
       </c>
       <c r="F20">
-        <v>1.022393555624725</v>
+        <v>1.076342697911816</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053172340938759</v>
+        <v>1.054723658752446</v>
       </c>
       <c r="J20">
-        <v>1.038662128582921</v>
+        <v>1.069102851047566</v>
       </c>
       <c r="K20">
-        <v>1.043072221676744</v>
+        <v>1.066387449174326</v>
       </c>
       <c r="L20">
-        <v>1.033969924659098</v>
+        <v>1.070756606849202</v>
       </c>
       <c r="M20">
-        <v>1.036053747744169</v>
+        <v>1.079581093227883</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.00167712994561</v>
+        <v>1.061467154418257</v>
       </c>
       <c r="D21">
-        <v>1.021654131304214</v>
+        <v>1.06181322037734</v>
       </c>
       <c r="E21">
-        <v>1.011259481071421</v>
+        <v>1.065977623802941</v>
       </c>
       <c r="F21">
-        <v>1.012468897330175</v>
+        <v>1.074638863849232</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048668851911877</v>
+        <v>1.05411038540514</v>
       </c>
       <c r="J21">
-        <v>1.031104898016208</v>
+        <v>1.067874728162014</v>
       </c>
       <c r="K21">
-        <v>1.036236553366938</v>
+        <v>1.065299868489596</v>
       </c>
       <c r="L21">
-        <v>1.026030633462115</v>
+        <v>1.069449656812422</v>
       </c>
       <c r="M21">
-        <v>1.027217831508739</v>
+        <v>1.078080899180301</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9951961265497666</v>
+        <v>1.060448738560576</v>
       </c>
       <c r="D22">
-        <v>1.016501393234901</v>
+        <v>1.060998669520466</v>
       </c>
       <c r="E22">
-        <v>1.005357325671334</v>
+        <v>1.065024866596093</v>
       </c>
       <c r="F22">
-        <v>1.005974665921157</v>
+        <v>1.073565804437943</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045705767368471</v>
+        <v>1.053722393629688</v>
       </c>
       <c r="J22">
-        <v>1.026148624050168</v>
+        <v>1.067100098950237</v>
       </c>
       <c r="K22">
-        <v>1.031752892084547</v>
+        <v>1.064613692920313</v>
       </c>
       <c r="L22">
-        <v>1.020823394760987</v>
+        <v>1.068625191857733</v>
       </c>
       <c r="M22">
-        <v>1.021428685465632</v>
+        <v>1.077135352759878</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9986580654236941</v>
+        <v>1.060988814690828</v>
       </c>
       <c r="D23">
-        <v>1.019253146881444</v>
+        <v>1.061430647163649</v>
       </c>
       <c r="E23">
-        <v>1.008509678441687</v>
+        <v>1.065530149842573</v>
       </c>
       <c r="F23">
-        <v>1.009442933948142</v>
+        <v>1.074134826342886</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047289719744154</v>
+        <v>1.053928304408475</v>
       </c>
       <c r="J23">
-        <v>1.028796579952129</v>
+        <v>1.067510979975345</v>
       </c>
       <c r="K23">
-        <v>1.034148396096559</v>
+        <v>1.06497767424015</v>
       </c>
       <c r="L23">
-        <v>1.023605470230401</v>
+        <v>1.069062517973675</v>
       </c>
       <c r="M23">
-        <v>1.024521083917641</v>
+        <v>1.077636827000119</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.011731788996074</v>
+        <v>1.063110779640251</v>
       </c>
       <c r="D24">
-        <v>1.029658328036705</v>
+        <v>1.063127595571906</v>
       </c>
       <c r="E24">
-        <v>1.020421895339757</v>
+        <v>1.067514824182121</v>
       </c>
       <c r="F24">
-        <v>1.022555941158058</v>
+        <v>1.076371233221114</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053245758466647</v>
+        <v>1.054733899917605</v>
       </c>
       <c r="J24">
-        <v>1.038785594353493</v>
+        <v>1.069123399503704</v>
       </c>
       <c r="K24">
-        <v>1.043183887042312</v>
+        <v>1.066405642866278</v>
       </c>
       <c r="L24">
-        <v>1.034099626093332</v>
+        <v>1.070778472264133</v>
       </c>
       <c r="M24">
-        <v>1.036198198775353</v>
+        <v>1.079606205555335</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.02590113834727</v>
+        <v>1.065564688301233</v>
       </c>
       <c r="D25">
-        <v>1.04095697905987</v>
+        <v>1.065089357342456</v>
       </c>
       <c r="E25">
-        <v>1.033344130393981</v>
+        <v>1.069808741361133</v>
       </c>
       <c r="F25">
-        <v>1.036796277987196</v>
+        <v>1.07895895964056</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059646695003109</v>
+        <v>1.055658414171002</v>
       </c>
       <c r="J25">
-        <v>1.049587197592041</v>
+        <v>1.070984040247775</v>
       </c>
       <c r="K25">
-        <v>1.052951100977858</v>
+        <v>1.068052596723487</v>
       </c>
       <c r="L25">
-        <v>1.045445969456891</v>
+        <v>1.072758091355677</v>
       </c>
       <c r="M25">
-        <v>1.048849023447559</v>
+        <v>1.081881756323601</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_133/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_133/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.067515367707383</v>
+        <v>1.036518246747103</v>
       </c>
       <c r="D2">
-        <v>1.066648265962144</v>
+        <v>1.049435467686938</v>
       </c>
       <c r="E2">
-        <v>1.071631246931134</v>
+        <v>1.043033099365118</v>
       </c>
       <c r="F2">
-        <v>1.081017199031096</v>
+        <v>1.047487024122518</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056387605843958</v>
+        <v>1.064397597178014</v>
       </c>
       <c r="J2">
-        <v>1.07245987330346</v>
+        <v>1.057658987294201</v>
       </c>
       <c r="K2">
-        <v>1.06935824989916</v>
+        <v>1.060246512262408</v>
       </c>
       <c r="L2">
-        <v>1.07432790634683</v>
+        <v>1.053923782982108</v>
       </c>
       <c r="M2">
-        <v>1.08368912070072</v>
+        <v>1.058322177041231</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.068928090650741</v>
+        <v>1.043881346863236</v>
       </c>
       <c r="D3">
-        <v>1.067776926209493</v>
+        <v>1.055320581357805</v>
       </c>
       <c r="E3">
-        <v>1.072950565568604</v>
+        <v>1.049754926222623</v>
       </c>
       <c r="F3">
-        <v>1.082508504673063</v>
+        <v>1.054912102893727</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056912375903674</v>
+        <v>1.067665314686089</v>
       </c>
       <c r="J3">
-        <v>1.073526819397444</v>
+        <v>1.063243267283899</v>
       </c>
       <c r="K3">
-        <v>1.070301762635523</v>
+        <v>1.065291369727178</v>
       </c>
       <c r="L3">
-        <v>1.075462574503108</v>
+        <v>1.059788431297132</v>
       </c>
       <c r="M3">
-        <v>1.084997162449742</v>
+        <v>1.064887466505002</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.069840582125223</v>
+        <v>1.048500234061826</v>
       </c>
       <c r="D4">
-        <v>1.068505779158423</v>
+        <v>1.05901414152916</v>
       </c>
       <c r="E4">
-        <v>1.073802457860655</v>
+        <v>1.053972296153471</v>
       </c>
       <c r="F4">
-        <v>1.083472070239699</v>
+        <v>1.059574662691891</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057249789916708</v>
+        <v>1.069702349798237</v>
       </c>
       <c r="J4">
-        <v>1.074215097625614</v>
+        <v>1.066739712637895</v>
       </c>
       <c r="K4">
-        <v>1.070910227125933</v>
+        <v>1.068448903226013</v>
       </c>
       <c r="L4">
-        <v>1.076194438545745</v>
+        <v>1.063460202264735</v>
       </c>
       <c r="M4">
-        <v>1.0858416276603</v>
+        <v>1.069003554294545</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.070223809267357</v>
+        <v>1.050409122570205</v>
       </c>
       <c r="D5">
-        <v>1.068811843006532</v>
+        <v>1.060540969190674</v>
       </c>
       <c r="E5">
-        <v>1.074160170210607</v>
+        <v>1.055715378886237</v>
       </c>
       <c r="F5">
-        <v>1.083876823210907</v>
+        <v>1.061502717102905</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057391127720013</v>
+        <v>1.070541098190745</v>
       </c>
       <c r="J5">
-        <v>1.0745039507973</v>
+        <v>1.068183098554674</v>
       </c>
       <c r="K5">
-        <v>1.071165539234296</v>
+        <v>1.069752086573773</v>
       </c>
       <c r="L5">
-        <v>1.076501559590203</v>
+        <v>1.064975916455163</v>
       </c>
       <c r="M5">
-        <v>1.08619618661742</v>
+        <v>1.070704050369635</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.070288132461976</v>
+        <v>1.050727758174435</v>
       </c>
       <c r="D6">
-        <v>1.06886321233133</v>
+        <v>1.0607958492327</v>
       </c>
       <c r="E6">
-        <v>1.074220207063781</v>
+        <v>1.056006344325212</v>
       </c>
       <c r="F6">
-        <v>1.083944763876282</v>
+        <v>1.061824616702058</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05741482907846</v>
+        <v>1.070680919402222</v>
       </c>
       <c r="J6">
-        <v>1.0745524214132</v>
+        <v>1.068423935004168</v>
       </c>
       <c r="K6">
-        <v>1.071208378877077</v>
+        <v>1.069969511753616</v>
       </c>
       <c r="L6">
-        <v>1.076553094219964</v>
+        <v>1.065228818494976</v>
       </c>
       <c r="M6">
-        <v>1.086255692184816</v>
+        <v>1.07098786460188</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.069845704326204</v>
+        <v>1.048525867510727</v>
       </c>
       <c r="D7">
-        <v>1.068509870151678</v>
+        <v>1.059034643171924</v>
       </c>
       <c r="E7">
-        <v>1.073807239285192</v>
+        <v>1.053995702620063</v>
       </c>
       <c r="F7">
-        <v>1.083477479856299</v>
+        <v>1.059600549129552</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057251680483691</v>
+        <v>1.069713625290371</v>
       </c>
       <c r="J7">
-        <v>1.074218959249759</v>
+        <v>1.066759101570308</v>
       </c>
       <c r="K7">
-        <v>1.070913640524047</v>
+        <v>1.068466410009752</v>
       </c>
       <c r="L7">
-        <v>1.076198544483796</v>
+        <v>1.063480562967513</v>
       </c>
       <c r="M7">
-        <v>1.085846367070903</v>
+        <v>1.069026391758549</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.067993146799555</v>
+        <v>1.039038001341154</v>
       </c>
       <c r="D8">
-        <v>1.067030008455863</v>
+        <v>1.051449001029987</v>
       </c>
       <c r="E8">
-        <v>1.072077492496162</v>
+        <v>1.045333211059329</v>
       </c>
       <c r="F8">
-        <v>1.081521488884436</v>
+        <v>1.050026955011389</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056565400780958</v>
+        <v>1.065518534607883</v>
       </c>
       <c r="J8">
-        <v>1.072820892358421</v>
+        <v>1.059571369470509</v>
       </c>
       <c r="K8">
-        <v>1.069677542046553</v>
+        <v>1.061974402400908</v>
       </c>
       <c r="L8">
-        <v>1.074711861403927</v>
+        <v>1.055932228310181</v>
       </c>
       <c r="M8">
-        <v>1.084131582214222</v>
+        <v>1.060569378648955</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.06471586511701</v>
+        <v>1.021107253769816</v>
       </c>
       <c r="D9">
-        <v>1.064410854184382</v>
+        <v>1.037132050797632</v>
       </c>
       <c r="E9">
-        <v>1.069015413720006</v>
+        <v>1.028970978395078</v>
       </c>
       <c r="F9">
-        <v>1.078063664197841</v>
+        <v>1.031974971056084</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055339506423568</v>
+        <v>1.057488189259883</v>
       </c>
       <c r="J9">
-        <v>1.070340934330664</v>
+        <v>1.045936062052901</v>
       </c>
       <c r="K9">
-        <v>1.067483454796774</v>
+        <v>1.049650102115196</v>
       </c>
       <c r="L9">
-        <v>1.072073923242188</v>
+        <v>1.041610879881234</v>
       </c>
       <c r="M9">
-        <v>1.081094865979735</v>
+        <v>1.04456973577486</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.062521931227502</v>
+        <v>1.00818466225662</v>
       </c>
       <c r="D10">
-        <v>1.062656738991818</v>
+        <v>1.026833215224425</v>
       </c>
       <c r="E10">
-        <v>1.066964169941332</v>
+        <v>1.017188782328806</v>
       </c>
       <c r="F10">
-        <v>1.075750511212564</v>
+        <v>1.018995721412212</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054510903166256</v>
+        <v>1.051634082115078</v>
       </c>
       <c r="J10">
-        <v>1.068676265371207</v>
+        <v>1.036077270775785</v>
       </c>
       <c r="K10">
-        <v>1.066009723804425</v>
+        <v>1.040734319171914</v>
       </c>
       <c r="L10">
-        <v>1.070302666590071</v>
+        <v>1.03125447170341</v>
       </c>
       <c r="M10">
-        <v>1.079059849365235</v>
+        <v>1.033030268159184</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.061569679915805</v>
+        <v>1.002318600035283</v>
       </c>
       <c r="D11">
-        <v>1.06189521655306</v>
+        <v>1.022164423093964</v>
       </c>
       <c r="E11">
-        <v>1.066073527469754</v>
+        <v>1.01184382408648</v>
       </c>
       <c r="F11">
-        <v>1.07474690480448</v>
+        <v>1.013111999783533</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054149375934798</v>
+        <v>1.048961606967295</v>
       </c>
       <c r="J11">
-        <v>1.067952672221848</v>
+        <v>1.031595239635176</v>
       </c>
       <c r="K11">
-        <v>1.06536890413672</v>
+        <v>1.036680115380923</v>
       </c>
       <c r="L11">
-        <v>1.069532610462937</v>
+        <v>1.02654578706412</v>
       </c>
       <c r="M11">
-        <v>1.078176070253449</v>
+        <v>1.027790807992197</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.061215622603977</v>
+        <v>1.000095003472248</v>
       </c>
       <c r="D12">
-        <v>1.061612049704286</v>
+        <v>1.020395763340297</v>
       </c>
       <c r="E12">
-        <v>1.065742328453265</v>
+        <v>1.009818378069426</v>
       </c>
       <c r="F12">
-        <v>1.074373811865063</v>
+        <v>1.010882994616331</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054014673706317</v>
+        <v>1.047946385741388</v>
       </c>
       <c r="J12">
-        <v>1.067683472977031</v>
+        <v>1.029895343124889</v>
       </c>
       <c r="K12">
-        <v>1.065130465984984</v>
+        <v>1.035142373747482</v>
       </c>
       <c r="L12">
-        <v>1.069246105508213</v>
+        <v>1.024759860294288</v>
       </c>
       <c r="M12">
-        <v>1.077847395950545</v>
+        <v>1.025804622125149</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.061291585022746</v>
+        <v>1.000574065385438</v>
       </c>
       <c r="D13">
-        <v>1.061672803788889</v>
+        <v>1.020776759260858</v>
       </c>
       <c r="E13">
-        <v>1.065813388855501</v>
+        <v>1.01025471971517</v>
       </c>
       <c r="F13">
-        <v>1.07445385568724</v>
+        <v>1.011363162492478</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054043586628528</v>
+        <v>1.048165207201289</v>
       </c>
       <c r="J13">
-        <v>1.067741236449419</v>
+        <v>1.030261617346772</v>
       </c>
       <c r="K13">
-        <v>1.065181630389945</v>
+        <v>1.035473713068976</v>
       </c>
       <c r="L13">
-        <v>1.069307583266172</v>
+        <v>1.025144674432093</v>
       </c>
       <c r="M13">
-        <v>1.077917915910562</v>
+        <v>1.0262325387758</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.061540420593538</v>
+        <v>1.00213573367644</v>
       </c>
       <c r="D14">
-        <v>1.061871816120465</v>
+        <v>1.02201894704447</v>
       </c>
       <c r="E14">
-        <v>1.066046158147569</v>
+        <v>1.011677240213984</v>
       </c>
       <c r="F14">
-        <v>1.074716071177981</v>
+        <v>1.012928662113823</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054138249892751</v>
+        <v>1.048878160108032</v>
       </c>
       <c r="J14">
-        <v>1.067930428828082</v>
+        <v>1.031455460242768</v>
       </c>
       <c r="K14">
-        <v>1.065349203146411</v>
+        <v>1.036553671694719</v>
       </c>
       <c r="L14">
-        <v>1.069508937542846</v>
+        <v>1.026398934948524</v>
       </c>
       <c r="M14">
-        <v>1.078148910128408</v>
+        <v>1.027627467792922</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.061693689923255</v>
+        <v>1.003091878135575</v>
       </c>
       <c r="D15">
-        <v>1.061994393782384</v>
+        <v>1.022779636204853</v>
       </c>
       <c r="E15">
-        <v>1.06618952508961</v>
+        <v>1.012548275071189</v>
       </c>
       <c r="F15">
-        <v>1.074877589602975</v>
+        <v>1.013887323566404</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054196519959848</v>
+        <v>1.049314386184907</v>
       </c>
       <c r="J15">
-        <v>1.068046940038117</v>
+        <v>1.03218628060609</v>
       </c>
       <c r="K15">
-        <v>1.065452395852965</v>
+        <v>1.037214763684912</v>
       </c>
       <c r="L15">
-        <v>1.06963293581071</v>
+        <v>1.027166731462091</v>
       </c>
       <c r="M15">
-        <v>1.078291180118931</v>
+        <v>1.028481512797913</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.062585080579933</v>
+        <v>1.008567941986517</v>
       </c>
       <c r="D16">
-        <v>1.062707236506135</v>
+        <v>1.027138409205077</v>
       </c>
       <c r="E16">
-        <v>1.067023226842336</v>
+        <v>1.017538093337172</v>
       </c>
       <c r="F16">
-        <v>1.075817074448948</v>
+        <v>1.019380327598947</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05453483855984</v>
+        <v>1.051808392238689</v>
       </c>
       <c r="J16">
-        <v>1.06872422870491</v>
+        <v>1.036369987144512</v>
       </c>
       <c r="K16">
-        <v>1.066052195835897</v>
+        <v>1.040999078464102</v>
       </c>
       <c r="L16">
-        <v>1.070353706927716</v>
+        <v>1.031561981451295</v>
       </c>
       <c r="M16">
-        <v>1.079118447319322</v>
+        <v>1.033372587118511</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.063143614263222</v>
+        <v>1.011927828653622</v>
       </c>
       <c r="D17">
-        <v>1.063153849730672</v>
+        <v>1.029814505601788</v>
       </c>
       <c r="E17">
-        <v>1.067545526862394</v>
+        <v>1.020600603200376</v>
       </c>
       <c r="F17">
-        <v>1.076405847799309</v>
+        <v>1.022752758064607</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054746321566114</v>
+        <v>1.053334730970762</v>
       </c>
       <c r="J17">
-        <v>1.069148324793548</v>
+        <v>1.0389352308413</v>
       </c>
       <c r="K17">
-        <v>1.066427711678791</v>
+        <v>1.043319221236791</v>
       </c>
       <c r="L17">
-        <v>1.070804994939156</v>
+        <v>1.034256819730152</v>
       </c>
       <c r="M17">
-        <v>1.079636667348151</v>
+        <v>1.036373273006378</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.063469179712746</v>
+        <v>1.013861795317592</v>
       </c>
       <c r="D18">
-        <v>1.063414161146435</v>
+        <v>1.031355453917957</v>
       </c>
       <c r="E18">
-        <v>1.067849940717619</v>
+        <v>1.022363713088944</v>
       </c>
       <c r="F18">
-        <v>1.076749077367921</v>
+        <v>1.024694695580425</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054869412245331</v>
+        <v>1.05421188028649</v>
       </c>
       <c r="J18">
-        <v>1.069395425050574</v>
+        <v>1.040411158932597</v>
       </c>
       <c r="K18">
-        <v>1.066646485109741</v>
+        <v>1.044654044263972</v>
       </c>
       <c r="L18">
-        <v>1.071067925943711</v>
+        <v>1.035807271170672</v>
       </c>
       <c r="M18">
-        <v>1.079938685685199</v>
+        <v>1.038100359139634</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.063580152437736</v>
+        <v>1.014516966028063</v>
       </c>
       <c r="D19">
-        <v>1.063502888482465</v>
+        <v>1.031877574671849</v>
       </c>
       <c r="E19">
-        <v>1.067953698374791</v>
+        <v>1.022961053094442</v>
       </c>
       <c r="F19">
-        <v>1.076866077490464</v>
+        <v>1.025352691850526</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054911338358063</v>
+        <v>1.054508789849989</v>
       </c>
       <c r="J19">
-        <v>1.069479634630706</v>
+        <v>1.040911049204561</v>
       </c>
       <c r="K19">
-        <v>1.066721037509099</v>
+        <v>1.045106127762813</v>
       </c>
       <c r="L19">
-        <v>1.071157528360652</v>
+        <v>1.036332395555565</v>
       </c>
       <c r="M19">
-        <v>1.080041623868967</v>
+        <v>1.038685421856215</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.063083711475979</v>
+        <v>1.011570040508693</v>
       </c>
       <c r="D20">
-        <v>1.063105952109838</v>
+        <v>1.02952947221952</v>
       </c>
       <c r="E20">
-        <v>1.067489513369828</v>
+        <v>1.020274448750128</v>
       </c>
       <c r="F20">
-        <v>1.076342697911816</v>
+        <v>1.022393555624724</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054723658752446</v>
+        <v>1.053172340938758</v>
       </c>
       <c r="J20">
-        <v>1.069102851047566</v>
+        <v>1.038662128582921</v>
       </c>
       <c r="K20">
-        <v>1.066387449174326</v>
+        <v>1.043072221676743</v>
       </c>
       <c r="L20">
-        <v>1.070756606849202</v>
+        <v>1.033969924659098</v>
       </c>
       <c r="M20">
-        <v>1.079581093227883</v>
+        <v>1.036053747744169</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.061467154418257</v>
+        <v>1.001677129945609</v>
       </c>
       <c r="D21">
-        <v>1.06181322037734</v>
+        <v>1.021654131304214</v>
       </c>
       <c r="E21">
-        <v>1.065977623802941</v>
+        <v>1.01125948107142</v>
       </c>
       <c r="F21">
-        <v>1.074638863849232</v>
+        <v>1.012468897330175</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05411038540514</v>
+        <v>1.048668851911877</v>
       </c>
       <c r="J21">
-        <v>1.067874728162014</v>
+        <v>1.031104898016208</v>
       </c>
       <c r="K21">
-        <v>1.065299868489596</v>
+        <v>1.036236553366938</v>
       </c>
       <c r="L21">
-        <v>1.069449656812422</v>
+        <v>1.026030633462114</v>
       </c>
       <c r="M21">
-        <v>1.078080899180301</v>
+        <v>1.027217831508738</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.060448738560576</v>
+        <v>0.995196126549768</v>
       </c>
       <c r="D22">
-        <v>1.060998669520466</v>
+        <v>1.016501393234902</v>
       </c>
       <c r="E22">
-        <v>1.065024866596093</v>
+        <v>1.005357325671335</v>
       </c>
       <c r="F22">
-        <v>1.073565804437943</v>
+        <v>1.005974665921159</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053722393629688</v>
+        <v>1.045705767368472</v>
       </c>
       <c r="J22">
-        <v>1.067100098950237</v>
+        <v>1.02614862405017</v>
       </c>
       <c r="K22">
-        <v>1.064613692920313</v>
+        <v>1.031752892084549</v>
       </c>
       <c r="L22">
-        <v>1.068625191857733</v>
+        <v>1.020823394760989</v>
       </c>
       <c r="M22">
-        <v>1.077135352759878</v>
+        <v>1.021428685465634</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>1.060988814690828</v>
+        <v>0.9986580654236938</v>
       </c>
       <c r="D23">
-        <v>1.061430647163649</v>
+        <v>1.019253146881444</v>
       </c>
       <c r="E23">
-        <v>1.065530149842573</v>
+        <v>1.008509678441687</v>
       </c>
       <c r="F23">
-        <v>1.074134826342886</v>
+        <v>1.009442933948142</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053928304408475</v>
+        <v>1.047289719744154</v>
       </c>
       <c r="J23">
-        <v>1.067510979975345</v>
+        <v>1.028796579952129</v>
       </c>
       <c r="K23">
-        <v>1.06497767424015</v>
+        <v>1.034148396096559</v>
       </c>
       <c r="L23">
-        <v>1.069062517973675</v>
+        <v>1.023605470230401</v>
       </c>
       <c r="M23">
-        <v>1.077636827000119</v>
+        <v>1.024521083917641</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.063110779640251</v>
+        <v>1.011731788996072</v>
       </c>
       <c r="D24">
-        <v>1.063127595571906</v>
+        <v>1.029658328036703</v>
       </c>
       <c r="E24">
-        <v>1.067514824182121</v>
+        <v>1.020421895339755</v>
       </c>
       <c r="F24">
-        <v>1.076371233221114</v>
+        <v>1.022555941158056</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054733899917605</v>
+        <v>1.053245758466646</v>
       </c>
       <c r="J24">
-        <v>1.069123399503704</v>
+        <v>1.038785594353491</v>
       </c>
       <c r="K24">
-        <v>1.066405642866278</v>
+        <v>1.04318388704231</v>
       </c>
       <c r="L24">
-        <v>1.070778472264133</v>
+        <v>1.03409962609333</v>
       </c>
       <c r="M24">
-        <v>1.079606205555335</v>
+        <v>1.036198198775351</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.065564688301233</v>
+        <v>1.02590113834727</v>
       </c>
       <c r="D25">
-        <v>1.065089357342456</v>
+        <v>1.040956979059871</v>
       </c>
       <c r="E25">
-        <v>1.069808741361133</v>
+        <v>1.033344130393981</v>
       </c>
       <c r="F25">
-        <v>1.07895895964056</v>
+        <v>1.036796277987196</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055658414171002</v>
+        <v>1.059646695003109</v>
       </c>
       <c r="J25">
-        <v>1.070984040247775</v>
+        <v>1.049587197592041</v>
       </c>
       <c r="K25">
-        <v>1.068052596723487</v>
+        <v>1.052951100977858</v>
       </c>
       <c r="L25">
-        <v>1.072758091355677</v>
+        <v>1.045445969456891</v>
       </c>
       <c r="M25">
-        <v>1.081881756323601</v>
+        <v>1.04884902344756</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
